--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
+    <sheet name="Arduino_PinMap" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="196">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,35 +509,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI1_MISO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART3_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART3_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C2_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_SS</t>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_BOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_H(TIM1_CH1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_L(TIM1_CH1N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_BOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_STATE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_STATE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PC13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin-No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin-Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino Not Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,42 +774,6 @@
   </si>
   <si>
     <t>SPI2_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_SCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_SCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_DM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C1_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C1_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNTRST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,7 +896,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -988,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:K29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1204,7 @@
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1080,6 +1282,9 @@
         <v>16</v>
       </c>
       <c r="H9" s="2"/>
+      <c r="J9" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
@@ -1099,6 +1304,9 @@
         <v>17</v>
       </c>
       <c r="H10" s="2"/>
+      <c r="J10" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
@@ -1171,7 +1379,9 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -1227,6 +1437,9 @@
         <v>46</v>
       </c>
       <c r="H17" s="2"/>
+      <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
@@ -1310,7 +1523,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -1331,9 +1544,6 @@
         <v>41</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="J22" s="7" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
@@ -1355,9 +1565,6 @@
       <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
@@ -1380,7 +1587,10 @@
         <v>35</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -1403,6 +1613,9 @@
       <c r="H25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
@@ -1444,7 +1657,9 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
@@ -1468,12 +1683,7 @@
       <c r="H28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
@@ -1497,12 +1707,7 @@
       <c r="H29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J29" t="s">
-        <v>124</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
@@ -1561,7 +1766,7 @@
       </c>
       <c r="H32" s="2"/>
       <c r="J32" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -1585,7 +1790,7 @@
       </c>
       <c r="H33" s="2"/>
       <c r="J33" s="7" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -1609,7 +1814,7 @@
       </c>
       <c r="H34" s="2"/>
       <c r="J34" s="6" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -1633,7 +1838,7 @@
       </c>
       <c r="H35" s="2"/>
       <c r="J35" s="6" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -1656,7 +1861,9 @@
         <v>71</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
@@ -1679,7 +1886,7 @@
       </c>
       <c r="H37" s="2"/>
       <c r="J37" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -1703,7 +1910,7 @@
       </c>
       <c r="H38" s="2"/>
       <c r="J38" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -1727,7 +1934,7 @@
       </c>
       <c r="H39" s="2"/>
       <c r="J39" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
@@ -1751,7 +1958,7 @@
       </c>
       <c r="H40" s="2"/>
       <c r="J40" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -1774,6 +1981,9 @@
       <c r="H41" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="J41" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
@@ -1904,7 +2114,7 @@
         <v>93</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -1927,7 +2137,9 @@
       <c r="H48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
@@ -1999,7 +2211,9 @@
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="J51" s="8"/>
+      <c r="J51" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
@@ -2024,7 +2238,7 @@
         <v>107</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
@@ -2050,7 +2264,7 @@
         <v>106</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
@@ -2112,4 +2326,454 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="11">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="11">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="11">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="11">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="11">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="11">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="11">
+        <v>13</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="11">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="11">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="11">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="11">
+        <v>17</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="11">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="11">
+        <v>19</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="11">
+        <v>20</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="11">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="11">
+        <v>22</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="11">
+        <v>23</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="11">
+        <v>24</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="11">
+        <v>25</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="11">
+        <v>26</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="11">
+        <v>27</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="11">
+        <v>28</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="11">
+        <v>29</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="11">
+        <v>30</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="11">
+        <v>31</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="11">
+        <v>32</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="11">
+        <v>33</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="11">
+        <v>34</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Variometer_STM32\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11385"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="196">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,14 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UART1_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART1_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,18 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SD_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EE_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_POWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JTMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,10 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BTN_RESET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,18 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LED_STATE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_STATE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,10 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arduino Not Support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI2_SCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,6 +739,46 @@
   </si>
   <si>
     <t>SPI2_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_BATTERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\SD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\EE_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_MCU_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND(Pull-down to GND)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,9 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -907,6 +909,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,7 +1185,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1213,37 +1218,37 @@
     <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -1283,7 +1288,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="6" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -1304,9 +1309,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="J10" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
@@ -1380,7 +1383,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -1438,7 +1441,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -1479,7 +1482,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -1501,7 +1504,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
@@ -1523,7 +1526,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -1587,10 +1590,10 @@
         <v>35</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -1614,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -1658,7 +1661,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="J27" s="8" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
@@ -1766,7 +1769,7 @@
       </c>
       <c r="H32" s="2"/>
       <c r="J32" s="6" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -1790,7 +1793,7 @@
       </c>
       <c r="H33" s="2"/>
       <c r="J33" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -1814,7 +1817,7 @@
       </c>
       <c r="H34" s="2"/>
       <c r="J34" s="6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -1838,7 +1841,7 @@
       </c>
       <c r="H35" s="2"/>
       <c r="J35" s="6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -1862,7 +1865,7 @@
       </c>
       <c r="H36" s="2"/>
       <c r="J36" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -1886,7 +1889,7 @@
       </c>
       <c r="H37" s="2"/>
       <c r="J37" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -1910,7 +1913,7 @@
       </c>
       <c r="H38" s="2"/>
       <c r="J38" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -1918,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>20</v>
@@ -1934,7 +1937,7 @@
       </c>
       <c r="H39" s="2"/>
       <c r="J39" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
@@ -1958,7 +1961,7 @@
       </c>
       <c r="H40" s="2"/>
       <c r="J40" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -1981,8 +1984,8 @@
       <c r="H41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>132</v>
+      <c r="J41" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
@@ -2114,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -2138,7 +2141,7 @@
         <v>92</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -2163,8 +2166,8 @@
       <c r="H49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>117</v>
+      <c r="J49" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="K49" s="6"/>
     </row>
@@ -2190,8 +2193,8 @@
       <c r="H50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>118</v>
+      <c r="J50" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="K50" s="6"/>
     </row>
@@ -2212,7 +2215,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="J51" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
@@ -2237,8 +2240,8 @@
       <c r="H52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>126</v>
+      <c r="J52" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
@@ -2263,8 +2266,8 @@
       <c r="H53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>127</v>
+      <c r="J53" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
@@ -2345,432 +2348,432 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>191</v>
+      <c r="C4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="10">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="10">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="10">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="10">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="10">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="10">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="10">
+        <v>12</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="10">
+        <v>13</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="10">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="10">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="10">
+        <v>16</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="10">
+        <v>17</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="10">
+        <v>18</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="10">
+        <v>19</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="10">
+        <v>20</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="10">
+        <v>21</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="10">
+        <v>22</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="12" t="s">
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="10">
+        <v>23</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="12" t="s">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="10">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="11">
-        <v>3</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="11">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="11">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="11">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="11">
-        <v>8</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="11">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="11">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="11">
-        <v>11</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="11">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="11">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="11">
-        <v>14</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="11">
-        <v>15</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="11">
-        <v>16</v>
-      </c>
-      <c r="D22" s="12" t="s">
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="10">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="11">
-        <v>17</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="10">
+        <v>26</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="11">
-        <v>18</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="10">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="11">
-        <v>19</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="10">
+        <v>28</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="11">
-        <v>20</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="10">
+        <v>29</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="11">
-        <v>21</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="10">
+        <v>30</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="11">
-        <v>22</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="10">
+        <v>31</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="11">
-        <v>23</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="10">
+        <v>32</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="11">
-        <v>24</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="10">
+        <v>33</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="11">
-        <v>25</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="10">
+        <v>34</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="11">
-        <v>26</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="11">
-        <v>27</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="11">
-        <v>28</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="11">
-        <v>29</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="11">
-        <v>30</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="11">
-        <v>31</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="11">
-        <v>32</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="11">
-        <v>33</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="11">
-        <v>34</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,6 +779,14 @@
   </si>
   <si>
     <t>remap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER_CTRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DETECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:J29"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1317,9 @@
         <v>17</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
@@ -1640,7 +1650,9 @@
       <c r="H26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="2">

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Variometer_STM32\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11385"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="238">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,6 +782,166 @@
   </si>
   <si>
     <t>USB_DETECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEPROM_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEPROM_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_SCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER_CTRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTERY_VOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_CMD(BTN_BOOT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_H(TIM1_CH1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_L(TIM1_CH1N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND(Pull-Down to GND)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_MCU_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DETECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_BOOT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +969,52 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -875,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,6 +1121,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,7 +1424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1201,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K58"/>
+  <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1219,13 +1450,14 @@
     <col min="8" max="8" width="35.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1478,7 @@
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1259,7 +1491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1276,8 +1508,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1298,8 +1533,11 @@
       <c r="J9" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1320,8 +1558,11 @@
       <c r="J10" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1339,8 +1580,11 @@
         <v>18</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L11" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1357,8 +1601,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L12" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1375,8 +1622,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L13" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1395,8 +1645,11 @@
       <c r="J14" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L14" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1413,8 +1666,11 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L15" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1431,8 +1687,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1453,8 +1712,11 @@
       <c r="J17" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1472,8 +1734,11 @@
         <v>45</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1494,8 +1759,11 @@
       <c r="J19" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1516,8 +1784,11 @@
       <c r="J20" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1538,8 +1809,11 @@
       <c r="J21" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1557,8 +1831,11 @@
         <v>41</v>
       </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1578,8 +1855,11 @@
       <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1599,14 +1879,17 @@
       <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="17" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1629,8 +1912,11 @@
       <c r="J25" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -1653,8 +1939,11 @@
       <c r="J26" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -1675,8 +1964,11 @@
       <c r="J27" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1699,8 +1991,11 @@
         <v>33</v>
       </c>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -1723,8 +2018,11 @@
         <v>59</v>
       </c>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -1741,8 +2039,11 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -1759,8 +2060,11 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -1780,11 +2084,15 @@
         <v>114</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="21"/>
+      <c r="L32" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>26</v>
       </c>
@@ -1804,11 +2112,15 @@
         <v>60</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="21"/>
+      <c r="L33" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>27</v>
       </c>
@@ -1831,8 +2143,11 @@
       <c r="J34" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L34" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>28</v>
       </c>
@@ -1855,8 +2170,11 @@
       <c r="J35" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L35" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>29</v>
       </c>
@@ -1879,8 +2197,11 @@
       <c r="J36" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>30</v>
       </c>
@@ -1903,8 +2224,11 @@
       <c r="J37" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>31</v>
       </c>
@@ -1927,8 +2251,11 @@
       <c r="J38" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>32</v>
       </c>
@@ -1951,8 +2278,11 @@
       <c r="J39" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>33</v>
       </c>
@@ -1975,8 +2305,11 @@
       <c r="J40" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>34</v>
       </c>
@@ -1999,8 +2332,11 @@
       <c r="J41" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>35</v>
       </c>
@@ -2017,8 +2353,11 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L42" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>36</v>
       </c>
@@ -2035,8 +2374,11 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L43" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>37</v>
       </c>
@@ -2059,8 +2401,11 @@
       <c r="J44" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>38</v>
       </c>
@@ -2083,8 +2428,11 @@
       <c r="J45" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>39</v>
       </c>
@@ -2107,8 +2455,11 @@
       <c r="J46" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>40</v>
       </c>
@@ -2131,8 +2482,11 @@
       <c r="J47" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>41</v>
       </c>
@@ -2155,8 +2509,11 @@
       <c r="J48" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>42</v>
       </c>
@@ -2182,8 +2539,11 @@
         <v>124</v>
       </c>
       <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>43</v>
       </c>
@@ -2209,8 +2569,11 @@
         <v>125</v>
       </c>
       <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>44</v>
       </c>
@@ -2229,8 +2592,11 @@
       <c r="J51" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>45</v>
       </c>
@@ -2255,8 +2621,11 @@
       <c r="J52" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>46</v>
       </c>
@@ -2281,8 +2650,11 @@
       <c r="J53" s="7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>47</v>
       </c>
@@ -2299,8 +2671,11 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>48</v>
       </c>
@@ -2317,13 +2692,16 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="J55" s="8"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
         <v>111</v>
       </c>

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Variometer_STM32\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11385"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
     <sheet name="Arduino_PinMap" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="241">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,18 +790,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EEPROM_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEPROM_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SD_SCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,10 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BATTERY_VOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,6 +931,34 @@
   </si>
   <si>
     <t>BTN_BOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\KILL_PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\INT_SHDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\SD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +1037,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1076,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,9 +1145,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +1174,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,7 +1453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1434,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1458,32 +1487,32 @@
     <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1538,7 @@
       <c r="H8" s="2"/>
       <c r="J8" s="8"/>
       <c r="L8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -1534,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="L9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -1559,7 +1588,7 @@
         <v>197</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1580,8 +1609,8 @@
         <v>18</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="L11" s="18" t="s">
-        <v>210</v>
+      <c r="L11" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -1601,8 +1630,8 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="8"/>
-      <c r="L12" s="19" t="s">
-        <v>234</v>
+      <c r="L12" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -1622,8 +1651,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="19" t="s">
-        <v>235</v>
+      <c r="L13" s="18" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1645,8 +1674,8 @@
       <c r="J14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>230</v>
+      <c r="L14" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -1666,8 +1695,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15" s="8"/>
-      <c r="L15" s="19" t="s">
-        <v>228</v>
+      <c r="L15" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -1687,8 +1716,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="19" t="s">
-        <v>229</v>
+      <c r="L16" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -1712,8 +1741,8 @@
       <c r="J17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="L17" t="s">
-        <v>208</v>
+      <c r="L17" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -1734,8 +1763,8 @@
         <v>45</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="L18" s="18" t="s">
-        <v>210</v>
+      <c r="L18" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
@@ -1760,7 +1789,7 @@
         <v>118</v>
       </c>
       <c r="L19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -1785,7 +1814,7 @@
         <v>119</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -1810,7 +1839,7 @@
         <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -1831,8 +1860,8 @@
         <v>41</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="L22" s="24" t="s">
-        <v>201</v>
+      <c r="L22" s="23" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -1855,8 +1884,8 @@
       <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>202</v>
+      <c r="L23" s="21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
@@ -1879,14 +1908,14 @@
       <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>203</v>
+      <c r="L24" s="21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -1913,7 +1942,7 @@
         <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -1939,8 +1968,8 @@
       <c r="J26" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L26" t="s">
-        <v>205</v>
+      <c r="L26" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -1965,7 +1994,7 @@
         <v>194</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -1991,8 +2020,8 @@
         <v>33</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="24" t="s">
-        <v>198</v>
+      <c r="L28" s="23" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -2018,8 +2047,8 @@
         <v>59</v>
       </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="22" t="s">
-        <v>199</v>
+      <c r="L29" s="21" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -2039,8 +2068,8 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="J30" s="8"/>
-      <c r="L30" s="19" t="s">
-        <v>228</v>
+      <c r="L30" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -2060,8 +2089,8 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="J31" s="8"/>
-      <c r="L31" s="19" t="s">
-        <v>229</v>
+      <c r="L31" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -2084,12 +2113,12 @@
         <v>114</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="15" t="s">
-        <v>209</v>
+      <c r="K32" s="20"/>
+      <c r="L32" s="14" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -2112,12 +2141,12 @@
         <v>60</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22" t="s">
-        <v>226</v>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
@@ -2143,8 +2172,8 @@
       <c r="J34" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="L34" s="18" t="s">
-        <v>210</v>
+      <c r="L34" s="17" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
@@ -2170,8 +2199,8 @@
       <c r="J35" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L35" s="18" t="s">
-        <v>210</v>
+      <c r="L35" s="17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
@@ -2198,7 +2227,7 @@
         <v>129</v>
       </c>
       <c r="L36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
@@ -2225,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="L37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
@@ -2252,7 +2281,7 @@
         <v>121</v>
       </c>
       <c r="L38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
@@ -2279,7 +2308,7 @@
         <v>123</v>
       </c>
       <c r="L39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
@@ -2306,7 +2335,7 @@
         <v>122</v>
       </c>
       <c r="L40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -2333,7 +2362,7 @@
         <v>127</v>
       </c>
       <c r="L41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
@@ -2353,8 +2382,8 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="J42" s="8"/>
-      <c r="L42" s="19" t="s">
-        <v>228</v>
+      <c r="L42" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
@@ -2374,8 +2403,8 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="J43" s="8"/>
-      <c r="L43" s="19" t="s">
-        <v>229</v>
+      <c r="L43" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
@@ -2402,7 +2431,7 @@
         <v>116</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
@@ -2429,7 +2458,7 @@
         <v>83</v>
       </c>
       <c r="L45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
@@ -2456,7 +2485,7 @@
         <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
@@ -2483,7 +2512,7 @@
         <v>126</v>
       </c>
       <c r="L47" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
@@ -2510,7 +2539,7 @@
         <v>132</v>
       </c>
       <c r="L48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -2540,7 +2569,7 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
@@ -2570,7 +2599,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
@@ -2593,7 +2622,7 @@
         <v>128</v>
       </c>
       <c r="L51" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
@@ -2622,7 +2651,7 @@
         <v>192</v>
       </c>
       <c r="L52" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
@@ -2651,7 +2680,7 @@
         <v>193</v>
       </c>
       <c r="L53" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
@@ -2671,8 +2700,8 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="J54" s="8"/>
-      <c r="L54" s="19" t="s">
-        <v>236</v>
+      <c r="L54" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
@@ -2692,8 +2721,8 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="J55" s="8"/>
-      <c r="L55" s="19" t="s">
-        <v>229</v>
+      <c r="L55" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -802,163 +802,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_CMD(BTN_BOOT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_H(TIM1_CH1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_L(TIM1_CH1N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND(Pull-Down to GND)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_MCU_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DETECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_BOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\KILL_PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\INT_SHDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\SD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DETECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>USB_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POWER_CTRL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART2_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART2_Rx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_DM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTDO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNTRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTN_CMD(BTN_BOOT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C1_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C1_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BT_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GPS_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_H(TIM1_CH1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_L(TIM1_CH1N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND(Pull-Down to GND)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTN_RESET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_MCU_STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_DETECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTN_BOOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\KILL_PWR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\INT_SHDN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C2_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\SD_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,9 +1040,17 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1102,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,11 +1183,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1487,32 +1501,32 @@
     <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1552,7 @@
       <c r="H8" s="2"/>
       <c r="J8" s="8"/>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -1563,7 +1577,7 @@
         <v>191</v>
       </c>
       <c r="L9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -1588,7 +1602,7 @@
         <v>197</v>
       </c>
       <c r="L10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1610,7 +1624,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="L11" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -1631,7 +1645,7 @@
       <c r="H12" s="2"/>
       <c r="J12" s="8"/>
       <c r="L12" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -1652,7 +1666,7 @@
       <c r="H13" s="2"/>
       <c r="J13" s="8"/>
       <c r="L13" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1675,7 +1689,7 @@
         <v>131</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -1696,7 +1710,7 @@
       <c r="H15" s="2"/>
       <c r="J15" s="8"/>
       <c r="L15" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -1717,7 +1731,7 @@
       <c r="H16" s="2"/>
       <c r="J16" s="8"/>
       <c r="L16" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -1764,7 +1778,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="L18" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
@@ -1789,7 +1803,7 @@
         <v>118</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -1814,7 +1828,7 @@
         <v>119</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -1839,7 +1853,7 @@
         <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -1942,7 +1956,7 @@
         <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -1968,8 +1982,8 @@
       <c r="J26" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>202</v>
+      <c r="L26" s="25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -1994,7 +2008,7 @@
         <v>194</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -2021,7 +2035,7 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -2048,7 +2062,7 @@
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -2069,7 +2083,7 @@
       <c r="H30" s="2"/>
       <c r="J30" s="8"/>
       <c r="L30" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -2090,7 +2104,7 @@
       <c r="H31" s="2"/>
       <c r="J31" s="8"/>
       <c r="L31" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -2118,7 +2132,7 @@
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -2145,8 +2159,8 @@
         <v>183</v>
       </c>
       <c r="K33" s="20"/>
-      <c r="L33" s="21" t="s">
-        <v>222</v>
+      <c r="L33" s="26" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
@@ -2172,8 +2186,8 @@
       <c r="J34" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="L34" s="17" t="s">
-        <v>234</v>
+      <c r="L34" s="25" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
@@ -2199,8 +2213,8 @@
       <c r="J35" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L35" s="17" t="s">
-        <v>235</v>
+      <c r="L35" s="27" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
@@ -2227,7 +2241,7 @@
         <v>129</v>
       </c>
       <c r="L36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
@@ -2254,7 +2268,7 @@
         <v>120</v>
       </c>
       <c r="L37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
@@ -2281,7 +2295,7 @@
         <v>121</v>
       </c>
       <c r="L38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
@@ -2308,7 +2322,7 @@
         <v>123</v>
       </c>
       <c r="L39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
@@ -2335,7 +2349,7 @@
         <v>122</v>
       </c>
       <c r="L40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -2362,7 +2376,7 @@
         <v>127</v>
       </c>
       <c r="L41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
@@ -2383,7 +2397,7 @@
       <c r="H42" s="2"/>
       <c r="J42" s="8"/>
       <c r="L42" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
@@ -2404,7 +2418,7 @@
       <c r="H43" s="2"/>
       <c r="J43" s="8"/>
       <c r="L43" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
@@ -2431,7 +2445,7 @@
         <v>116</v>
       </c>
       <c r="L44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
@@ -2458,7 +2472,7 @@
         <v>83</v>
       </c>
       <c r="L45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
@@ -2485,7 +2499,7 @@
         <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
@@ -2512,7 +2526,7 @@
         <v>126</v>
       </c>
       <c r="L47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
@@ -2539,7 +2553,7 @@
         <v>132</v>
       </c>
       <c r="L48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -2569,7 +2583,7 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
@@ -2599,7 +2613,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
@@ -2622,7 +2636,7 @@
         <v>128</v>
       </c>
       <c r="L51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
@@ -2651,7 +2665,7 @@
         <v>192</v>
       </c>
       <c r="L52" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
@@ -2680,7 +2694,7 @@
         <v>193</v>
       </c>
       <c r="L53" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
@@ -2701,7 +2715,7 @@
       <c r="H54" s="2"/>
       <c r="J54" s="8"/>
       <c r="L54" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
@@ -2722,7 +2736,7 @@
       <c r="H55" s="2"/>
       <c r="J55" s="8"/>
       <c r="L55" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -15,6 +15,9 @@
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
     <sheet name="Arduino_PinMap" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">STM32F103xx_LQFP48!$B$6:$L$58</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="239">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,10 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POWER_CTRL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,75 +889,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LED_MCU_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_BOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\KILL_PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\INT_SHDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\SD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_DETECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_MCU_STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_DETECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTN_BOOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\KILL_PWR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\INT_SHDN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C2_SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\SD_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_DETECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BT_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +961,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,15 +987,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1008,29 +1012,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1038,17 +1020,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <strike/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1117,28 +1098,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1156,44 +1119,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,23 +1458,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="1.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
@@ -1501,1253 +1483,1385 @@
     <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="4" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>117</v>
       </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="L8" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>14</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
         <v>16</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
         <v>17</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="J10" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="C24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>18</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>20</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
+        <v>22</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>23</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>24</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>25</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>26</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>27</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <v>28</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>29</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>30</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
+        <v>31</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
+        <v>32</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
+        <v>33</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
+        <v>34</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>35</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
+        <v>36</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="12">
+        <v>37</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="12">
+        <v>38</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
+        <v>39</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
+        <v>40</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="12">
+        <v>41</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="12">
+        <v>42</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="12">
+        <v>43</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="12">
+        <v>44</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="12">
+        <v>45</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="10"/>
+      <c r="L52" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="12">
+        <v>46</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="12">
+        <v>47</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="L11" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="L13" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="12">
+        <v>48</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="L15" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="L16" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="L18" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="J19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="J21" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="L22" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="J27" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="J30" s="8"/>
-      <c r="L30" s="18" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="J31" s="8"/>
-      <c r="L31" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="J32" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="J33" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="J34" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="J35" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="J36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="J37" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="J38" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="J39" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
-        <v>33</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="J40" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
-        <v>35</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="J42" s="8"/>
-      <c r="L42" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
-        <v>36</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="J43" s="8"/>
-      <c r="L43" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>37</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L44" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
-        <v>38</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <v>39</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
-        <v>40</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
-        <v>41</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
-        <v>42</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="L49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
-        <v>43</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K50" s="6"/>
-      <c r="L50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
-        <v>44</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="J51" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
-        <v>45</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
-        <v>46</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L53" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
-        <v>47</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="J54" s="8"/>
-      <c r="L54" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
-        <v>48</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="J55" s="8"/>
-      <c r="L55" s="18" t="s">
-        <v>221</v>
-      </c>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="10" t="s">
         <v>110</v>
       </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="10" t="s">
         <v>111</v>
       </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2760,7 +2874,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2774,439 +2888,439 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="10">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="10">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="10">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="10">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="10">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="10">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="10">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="10">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="10">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="10">
+      <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="10">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="10">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="10">
+      <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="10">
+      <c r="C18" s="4">
         <v>13</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="10">
+      <c r="C19" s="4">
         <v>14</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="10">
+      <c r="C20" s="4">
         <v>15</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="10">
+      <c r="C22" s="4">
         <v>16</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="10">
+      <c r="C23" s="4">
         <v>17</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="10">
+      <c r="C24" s="4">
         <v>18</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="10">
+      <c r="C25" s="4">
         <v>19</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="10">
-        <v>20</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="10">
+      <c r="C27" s="4">
         <v>21</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="10">
+      <c r="C28" s="4">
         <v>22</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="10">
+      <c r="C29" s="4">
         <v>23</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="10">
+      <c r="C30" s="4">
         <v>24</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="10">
+      <c r="C31" s="4">
         <v>25</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="10">
+      <c r="C32" s="4">
         <v>26</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="10">
+      <c r="C33" s="4">
         <v>27</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="10">
+      <c r="C34" s="4">
         <v>28</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="10">
+      <c r="C35" s="4">
         <v>29</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="10">
+      <c r="C36" s="4">
         <v>30</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="10">
+      <c r="C37" s="4">
         <v>31</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="10">
+      <c r="C39" s="4">
         <v>32</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="10">
+      <c r="C40" s="4">
         <v>33</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="10">
+      <c r="C41" s="4">
         <v>34</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="240">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -954,6 +954,10 @@
   </si>
   <si>
     <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODE_SEL(DBG/UMS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +1463,7 @@
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1789,8 +1793,8 @@
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="15" t="s">
-        <v>203</v>
+      <c r="L18" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -1462,24 +1462,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.75" customWidth="1"/>
-    <col min="10" max="10" width="22.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1745,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>10</v>
       </c>

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Variometer_STM32\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11385"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">STM32F103xx_LQFP48!$B$6:$L$58</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="253">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -958,6 +953,58 @@
   </si>
   <si>
     <t>MODE_SEL(DBG/UMS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orignal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revision 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_ALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input PU on reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input PD on reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input floating on reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_INTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_DRDY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_FSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT_LOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1226,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,7 +1505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1460,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L58"/>
+  <dimension ref="B1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1480,13 +1533,15 @@
     <col min="10" max="10" width="20.75" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.75" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1566,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1524,11 +1579,18 @@
         <v>117</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="N7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -1548,8 +1610,9 @@
       <c r="J8" s="13"/>
       <c r="K8" s="10"/>
       <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>2</v>
       </c>
@@ -1575,8 +1638,11 @@
       <c r="L9" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>3</v>
       </c>
@@ -1602,8 +1668,11 @@
       <c r="L10" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>4</v>
       </c>
@@ -1627,8 +1696,11 @@
       <c r="L11" s="15" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N11" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>5</v>
       </c>
@@ -1650,8 +1722,11 @@
       <c r="L12" s="16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>6</v>
       </c>
@@ -1673,8 +1748,11 @@
       <c r="L13" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N13" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>7</v>
       </c>
@@ -1698,8 +1776,11 @@
       <c r="L14" s="16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>8</v>
       </c>
@@ -1721,8 +1802,11 @@
       <c r="L15" s="16" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N15" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>9</v>
       </c>
@@ -1744,8 +1828,11 @@
       <c r="L16" s="16" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N16" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>10</v>
       </c>
@@ -1771,8 +1858,11 @@
       <c r="L17" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>11</v>
       </c>
@@ -1796,8 +1886,11 @@
       <c r="L18" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>12</v>
       </c>
@@ -1823,8 +1916,11 @@
       <c r="L19" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N19" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>13</v>
       </c>
@@ -1850,8 +1946,11 @@
       <c r="L20" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N20" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>14</v>
       </c>
@@ -1877,8 +1976,11 @@
       <c r="L21" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N21" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>15</v>
       </c>
@@ -1902,8 +2004,11 @@
       <c r="L22" s="18" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N22" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>16</v>
       </c>
@@ -1929,8 +2034,11 @@
       <c r="L23" s="18" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N23" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>17</v>
       </c>
@@ -1958,8 +2066,11 @@
       <c r="L24" s="18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N24" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>18</v>
       </c>
@@ -1987,8 +2098,11 @@
       <c r="L25" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N25" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <v>19</v>
       </c>
@@ -2016,8 +2130,11 @@
       <c r="L26" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N26" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>20</v>
       </c>
@@ -2043,8 +2160,11 @@
       <c r="L27" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N27" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <v>21</v>
       </c>
@@ -2072,8 +2192,11 @@
       <c r="L28" s="18" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N28" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>22</v>
       </c>
@@ -2101,8 +2224,11 @@
       <c r="L29" s="18" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N29" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <v>23</v>
       </c>
@@ -2124,8 +2250,11 @@
       <c r="L30" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N30" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>24</v>
       </c>
@@ -2147,8 +2276,11 @@
       <c r="L31" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N31" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>25</v>
       </c>
@@ -2176,8 +2308,11 @@
       <c r="L32" s="15" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N32" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>26</v>
       </c>
@@ -2205,8 +2340,11 @@
       <c r="L33" s="24" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N33" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>27</v>
       </c>
@@ -2234,8 +2372,11 @@
       <c r="L34" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N34" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>28</v>
       </c>
@@ -2263,8 +2404,11 @@
       <c r="L35" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N35" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <v>29</v>
       </c>
@@ -2292,8 +2436,11 @@
       <c r="L36" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N36" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <v>30</v>
       </c>
@@ -2321,8 +2468,11 @@
       <c r="L37" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N37" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <v>31</v>
       </c>
@@ -2350,8 +2500,11 @@
       <c r="L38" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N38" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <v>32</v>
       </c>
@@ -2379,8 +2532,11 @@
       <c r="L39" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N39" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <v>33</v>
       </c>
@@ -2408,8 +2564,11 @@
       <c r="L40" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N40" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <v>34</v>
       </c>
@@ -2437,8 +2596,11 @@
       <c r="L41" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="O41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <v>35</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L42" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N42" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <v>36</v>
       </c>
@@ -2483,8 +2648,11 @@
       <c r="L43" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N43" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <v>37</v>
       </c>
@@ -2512,8 +2680,14 @@
       <c r="L44" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N44" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="O44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <v>38</v>
       </c>
@@ -2541,8 +2715,14 @@
       <c r="L45" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N45" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="O45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <v>39</v>
       </c>
@@ -2570,8 +2750,14 @@
       <c r="L46" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N46" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="O46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <v>40</v>
       </c>
@@ -2599,8 +2785,14 @@
       <c r="L47" s="8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N47" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="O47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <v>41</v>
       </c>
@@ -2628,8 +2820,11 @@
       <c r="L48" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N48" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <v>42</v>
       </c>
@@ -2659,8 +2854,11 @@
       <c r="L49" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N49" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <v>43</v>
       </c>
@@ -2690,8 +2888,11 @@
       <c r="L50" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N50" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <v>44</v>
       </c>
@@ -2715,8 +2916,11 @@
       <c r="L51" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N51" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <v>45</v>
       </c>
@@ -2746,8 +2950,11 @@
       <c r="L52" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N52" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <v>46</v>
       </c>
@@ -2777,8 +2984,11 @@
       <c r="L53" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N53" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <v>47</v>
       </c>
@@ -2800,8 +3010,11 @@
       <c r="L54" s="16" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N54" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <v>48</v>
       </c>
@@ -2823,8 +3036,11 @@
       <c r="L55" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N55" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -2837,7 +3053,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>110</v>
       </c>
@@ -2852,7 +3068,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>111</v>
       </c>

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Variometer_STM32\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11385"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="252">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,27 +989,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IMU_INTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_FSYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SD_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IMU_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_INTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IMU_DRDY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU_FSYNC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAT_LOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,14 +1225,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,7 +1506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1542,36 +1543,36 @@
     <row r="3" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1668,7 +1669,7 @@
       <c r="L10" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="27" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1696,7 +1697,7 @@
       <c r="L11" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="27" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2004,7 +2005,7 @@
       <c r="L22" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="27" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2034,7 +2035,7 @@
       <c r="L23" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="N23" s="28" t="s">
+      <c r="N23" s="27" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2066,7 +2067,7 @@
       <c r="L24" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="N24" s="28" t="s">
+      <c r="N24" s="27" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2098,7 +2099,7 @@
       <c r="L25" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="27" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2130,7 +2131,7 @@
       <c r="L26" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="N26" s="28" t="s">
+      <c r="N26" s="27" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2160,7 +2161,7 @@
       <c r="L27" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="N27" s="28" t="s">
+      <c r="N27" s="27" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2192,7 +2193,7 @@
       <c r="L28" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="N28" s="28" t="s">
+      <c r="N28" s="27" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2224,7 +2225,7 @@
       <c r="L29" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="N29" s="28" t="s">
+      <c r="N29" s="27" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2308,8 +2309,8 @@
       <c r="L32" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="N32" s="29" t="s">
-        <v>247</v>
+      <c r="N32" s="28" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
@@ -2340,8 +2341,8 @@
       <c r="L33" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="29" t="s">
-        <v>248</v>
+      <c r="N33" s="28" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
@@ -2595,6 +2596,9 @@
       <c r="K41" s="10"/>
       <c r="L41" s="8" t="s">
         <v>208</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="O41" t="s">
         <v>244</v>
@@ -2681,7 +2685,7 @@
         <v>209</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O44" t="s">
         <v>245</v>
@@ -2750,9 +2754,7 @@
       <c r="L46" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="N46" s="15" t="s">
-        <v>249</v>
-      </c>
+      <c r="N46" s="15"/>
       <c r="O46" t="s">
         <v>246</v>
       </c>
@@ -2785,9 +2787,7 @@
       <c r="L47" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N47" s="15" t="s">
-        <v>252</v>
-      </c>
+      <c r="N47" s="15"/>
       <c r="O47" t="s">
         <v>244</v>
       </c>

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -957,18 +957,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MODE_SEL(DBG/UMS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Orignal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Revision 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fix 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1006,6 +998,27 @@
   </si>
   <si>
     <t>IMU_DRDY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revision 1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MODE_SEL(DBG/UMS)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADC_ALT</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1516,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32:N33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1533,7 +1546,7 @@
     <col min="9" max="9" width="2.75" customWidth="1"/>
     <col min="10" max="10" width="20.75" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.375" customWidth="1"/>
     <col min="13" max="13" width="1.75" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -1581,14 +1594,14 @@
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -1885,10 +1898,10 @@
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
       <c r="L18" s="8" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -2310,7 +2323,7 @@
         <v>202</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
@@ -2342,7 +2355,7 @@
         <v>217</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
@@ -2598,10 +2611,10 @@
         <v>208</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
@@ -2685,10 +2698,10 @@
         <v>209</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
@@ -2720,10 +2733,10 @@
         <v>210</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
@@ -2756,7 +2769,7 @@
       </c>
       <c r="N46" s="15"/>
       <c r="O46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
@@ -2789,7 +2802,7 @@
       </c>
       <c r="N47" s="15"/>
       <c r="O47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Variometer_STM32\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\Vario-STM32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25918A1A-AB0C-4099-A87E-8C82E0AA2105}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="11385"/>
+    <workbookView xWindow="28875" yWindow="90" windowWidth="27930" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="266">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1021,12 +1022,68 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Revision 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_RST(O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_DC(O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_BUSY(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_DIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDP_CS(O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_PERI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_PERI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR_EXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAKEUP/KEY_SEL(Pulldown)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_UP(Pulldown)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_BOOT/KEY_DN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,6 +1157,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1156,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1308,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,11 +1598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O41" sqref="O23:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1549,43 +1621,45 @@
     <col min="12" max="12" width="25.375" customWidth="1"/>
     <col min="13" max="13" width="1.75" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="17" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+    <row r="1" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1603,8 +1677,11 @@
       <c r="N7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -1625,8 +1702,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="8"/>
       <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>2</v>
       </c>
@@ -1655,8 +1733,11 @@
       <c r="N9" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>3</v>
       </c>
@@ -1685,8 +1766,11 @@
       <c r="N10" s="27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P10" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>4</v>
       </c>
@@ -1713,8 +1797,11 @@
       <c r="N11" s="27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P11" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>5</v>
       </c>
@@ -1739,8 +1826,11 @@
       <c r="N12" s="16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>6</v>
       </c>
@@ -1765,8 +1855,11 @@
       <c r="N13" s="16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>7</v>
       </c>
@@ -1793,8 +1886,11 @@
       <c r="N14" s="16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>8</v>
       </c>
@@ -1819,8 +1915,11 @@
       <c r="N15" s="16" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>9</v>
       </c>
@@ -1845,8 +1944,11 @@
       <c r="N16" s="16" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>10</v>
       </c>
@@ -1875,8 +1977,11 @@
       <c r="N17" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>11</v>
       </c>
@@ -1903,8 +2008,11 @@
       <c r="N18" s="15" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>12</v>
       </c>
@@ -1933,8 +2041,11 @@
       <c r="N19" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>13</v>
       </c>
@@ -1963,8 +2074,11 @@
       <c r="N20" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>14</v>
       </c>
@@ -1993,8 +2107,11 @@
       <c r="N21" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>15</v>
       </c>
@@ -2021,8 +2138,14 @@
       <c r="N22" s="27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="P22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>16</v>
       </c>
@@ -2051,8 +2174,11 @@
       <c r="N23" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>17</v>
       </c>
@@ -2083,8 +2209,14 @@
       <c r="N24" s="27" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="P24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>18</v>
       </c>
@@ -2115,8 +2247,11 @@
       <c r="N25" s="27" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <v>19</v>
       </c>
@@ -2147,8 +2282,11 @@
       <c r="N26" s="27" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>20</v>
       </c>
@@ -2177,8 +2315,11 @@
       <c r="N27" s="27" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <v>21</v>
       </c>
@@ -2209,8 +2350,11 @@
       <c r="N28" s="27" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>22</v>
       </c>
@@ -2241,8 +2385,11 @@
       <c r="N29" s="27" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <v>23</v>
       </c>
@@ -2267,8 +2414,11 @@
       <c r="N30" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>24</v>
       </c>
@@ -2293,8 +2443,11 @@
       <c r="N31" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>25</v>
       </c>
@@ -2325,8 +2478,11 @@
       <c r="N32" s="28" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O32" s="28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>26</v>
       </c>
@@ -2357,8 +2513,11 @@
       <c r="N33" s="28" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O33" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>27</v>
       </c>
@@ -2389,8 +2548,11 @@
       <c r="N34" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O34" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>28</v>
       </c>
@@ -2421,8 +2583,11 @@
       <c r="N35" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O35" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <v>29</v>
       </c>
@@ -2453,8 +2618,11 @@
       <c r="N36" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O36" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <v>30</v>
       </c>
@@ -2485,8 +2653,11 @@
       <c r="N37" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O37" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <v>31</v>
       </c>
@@ -2517,8 +2688,11 @@
       <c r="N38" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O38" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <v>32</v>
       </c>
@@ -2549,8 +2723,11 @@
       <c r="N39" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O39" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <v>33</v>
       </c>
@@ -2581,8 +2758,11 @@
       <c r="N40" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O40" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <v>34</v>
       </c>
@@ -2613,11 +2793,14 @@
       <c r="N41" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <v>35</v>
       </c>
@@ -2642,8 +2825,11 @@
       <c r="N42" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O42" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <v>36</v>
       </c>
@@ -2668,8 +2854,11 @@
       <c r="N43" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O43" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <v>37</v>
       </c>
@@ -2700,11 +2889,14 @@
       <c r="N44" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q44" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <v>38</v>
       </c>
@@ -2735,11 +2927,14 @@
       <c r="N45" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q45" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <v>39</v>
       </c>
@@ -2768,11 +2963,15 @@
         <v>211</v>
       </c>
       <c r="N46" s="15"/>
-      <c r="O46" t="s">
+      <c r="O46" s="15"/>
+      <c r="P46" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q46" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <v>40</v>
       </c>
@@ -2801,11 +3000,15 @@
         <v>212</v>
       </c>
       <c r="N47" s="15"/>
-      <c r="O47" t="s">
+      <c r="O47" s="15"/>
+      <c r="P47" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q47" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <v>41</v>
       </c>
@@ -2836,8 +3039,11 @@
       <c r="N48" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <v>42</v>
       </c>
@@ -2870,8 +3076,11 @@
       <c r="N49" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <v>43</v>
       </c>
@@ -2904,8 +3113,11 @@
       <c r="N50" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <v>44</v>
       </c>
@@ -2932,8 +3144,11 @@
       <c r="N51" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <v>45</v>
       </c>
@@ -2966,8 +3181,11 @@
       <c r="N52" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <v>46</v>
       </c>
@@ -3000,8 +3218,11 @@
       <c r="N53" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <v>47</v>
       </c>
@@ -3026,8 +3247,11 @@
       <c r="N54" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <v>48</v>
       </c>
@@ -3052,8 +3276,11 @@
       <c r="N55" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -3066,7 +3293,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>110</v>
       </c>
@@ -3081,7 +3308,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>111</v>
       </c>
@@ -3112,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/STM32F103xx-LQFP48 pin-out.xlsx
+++ b/doc/STM32F103xx-LQFP48 pin-out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\Vario-STM32\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Variometer-STM32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25918A1A-AB0C-4099-A87E-8C82E0AA2105}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB00759-1E67-42AE-B139-AF5DF97A7B7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="90" windowWidth="27930" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103xx_LQFP48" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="267">
   <si>
     <t>Pins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,30 +1031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EPD_RST(O)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_DC(O)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_BUSY(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_CLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPD_DIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDP_CS(O)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWR_PERI1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,15 +1043,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WAKEUP/KEY_SEL(Pulldown)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY_UP(Pulldown)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTN_BOOT/KEY_DN</t>
+    <t>KEY_SEL/WAKEUP(Pulldown)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_UP/BOOT1(Pulldown)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_DN/BOOT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_SCLK/EPD_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_MOSI/EPD_DIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_BUSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD_RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN_BOOT/KEY_DN(Pulldown)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1087,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,8 +1162,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1222,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,11 +1324,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O41" sqref="O23:O41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1621,7 +1635,7 @@
     <col min="12" max="12" width="25.375" customWidth="1"/>
     <col min="13" max="13" width="1.75" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="15" max="15" width="25.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1630,36 +1644,36 @@
     <row r="3" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1766,9 +1780,10 @@
       <c r="N10" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="27" t="s">
-        <v>255</v>
-      </c>
+      <c r="O10" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
@@ -1797,9 +1812,10 @@
       <c r="N11" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="P11" s="27" t="s">
-        <v>254</v>
-      </c>
+      <c r="O11" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
@@ -1948,7 +1964,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>10</v>
       </c>
@@ -1978,10 +1994,10 @@
         <v>187</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>11</v>
       </c>
@@ -2012,7 +2028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>12</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>13</v>
       </c>
@@ -2078,7 +2094,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>14</v>
       </c>
@@ -2111,7 +2127,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>15</v>
       </c>
@@ -2138,14 +2154,11 @@
       <c r="N22" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="O22" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="P22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O22" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>16</v>
       </c>
@@ -2178,7 +2191,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>17</v>
       </c>
@@ -2209,14 +2222,11 @@
       <c r="N24" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="O24" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="P24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O24" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>18</v>
       </c>
@@ -2248,10 +2258,10 @@
         <v>192</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <v>19</v>
       </c>
@@ -2283,10 +2293,10 @@
         <v>193</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>20</v>
       </c>
@@ -2316,10 +2326,10 @@
         <v>218</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <v>21</v>
       </c>
@@ -2354,7 +2364,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>22</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <v>23</v>
       </c>
@@ -2418,7 +2428,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>24</v>
       </c>
@@ -2447,7 +2457,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>25</v>
       </c>
@@ -2479,7 +2489,7 @@
         <v>247</v>
       </c>
       <c r="O32" s="28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
@@ -2548,8 +2558,8 @@
       <c r="N34" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="O34" s="8" t="s">
-        <v>227</v>
+      <c r="O34" s="15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
@@ -2583,8 +2593,8 @@
       <c r="N35" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="O35" s="8" t="s">
-        <v>228</v>
+      <c r="O35" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
@@ -2964,9 +2974,6 @@
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
-      <c r="P46" t="s">
-        <v>256</v>
-      </c>
       <c r="Q46" t="s">
         <v>244</v>
       </c>
@@ -3001,9 +3008,6 @@
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
-      <c r="P47" t="s">
-        <v>259</v>
-      </c>
       <c r="Q47" t="s">
         <v>242</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>213</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
@@ -3145,7 +3149,7 @@
         <v>128</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
@@ -3181,7 +3185,7 @@
       <c r="N52" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="O52" s="30" t="s">
+      <c r="O52" s="27" t="s">
         <v>196</v>
       </c>
     </row>
